--- a/docs/mediawiki_history_fields.xlsx
+++ b/docs/mediawiki_history_fields.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WCDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE82F5B-10B1-A743-9E6B-517EBE90F556}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3624F2D4-D332-3243-B103-68B72713EFF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6380" yWindow="-21140" windowWidth="38340" windowHeight="21060" xr2:uid="{A4C47194-E7CF-004C-A935-E85B4C827786}"/>
+    <workbookView xWindow="-38340" yWindow="-5140" windowWidth="38340" windowHeight="21060" xr2:uid="{A4C47194-E7CF-004C-A935-E85B4C827786}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15556" uniqueCount="1203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15557" uniqueCount="1204">
   <si>
     <t>wiki_db</t>
   </si>
@@ -3636,13 +3636,16 @@
   </si>
   <si>
     <t>articles_created</t>
+  </si>
+  <si>
+    <t>user_anon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3685,13 +3688,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -3834,8 +3856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -3846,9 +3867,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -3858,6 +3876,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4175,54 +4200,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A55671-60C7-894C-AF9A-03C07EF4491D}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="41" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="122.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="22" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="122.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="22" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9"/>
+      <c r="B1" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>1169</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4230,22 +4255,22 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>1170</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="12" t="s">
         <v>1202</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="12" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4253,22 +4278,22 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="12" t="s">
         <v>1170</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="12" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4276,19 +4301,19 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="12" t="s">
         <v>1173</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="21" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -4296,16 +4321,16 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4313,35 +4338,38 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="16" t="s">
-        <v>153</v>
+      <c r="E7" s="15"/>
+      <c r="F7" s="12" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4349,22 +4377,22 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="16" t="s">
         <v>1170</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="12" t="s">
         <v>1174</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="12" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4372,16 +4400,16 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4389,16 +4417,16 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4406,16 +4434,16 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4423,22 +4451,22 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="12" t="s">
         <v>1170</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="12" t="s">
         <v>1176</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="12" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4446,16 +4474,16 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4463,16 +4491,16 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4480,16 +4508,16 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4497,16 +4525,16 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4514,16 +4542,16 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4531,17 +4559,17 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="16" t="s">
+      <c r="E19" s="15"/>
+      <c r="F19" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4549,19 +4577,19 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="12" t="s">
         <v>1170</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="12" t="s">
         <v>1179</v>
       </c>
     </row>
@@ -4569,16 +4597,16 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4586,16 +4614,16 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4603,22 +4631,22 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="12" t="s">
         <v>1170</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="12" t="s">
         <v>1183</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="12" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4626,63 +4654,63 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="13" t="s">
         <v>1170</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="G25" s="17"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="12" t="s">
         <v>1170</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="12" t="s">
         <v>1175</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="22" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -4690,19 +4718,19 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="12" t="s">
         <v>1170</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4710,16 +4738,16 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4727,16 +4755,16 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4744,19 +4772,19 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="12" t="s">
         <v>1170</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4764,16 +4792,16 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4781,16 +4809,16 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4798,16 +4826,16 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4815,19 +4843,19 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="12" t="s">
         <v>1170</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="12" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -4835,22 +4863,22 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="C35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="12" t="s">
         <v>1170</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="12" t="s">
         <v>1171</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="22" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -4858,22 +4886,22 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="12" t="s">
         <v>1170</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="12" t="s">
         <v>1167</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="22" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -4881,358 +4909,358 @@
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="12" t="s">
         <v>1172</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="22" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="13" t="s">
         <v>1170</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="G38" s="17"/>
+      <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+    <row r="39" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16" t="s">
+      <c r="E39" s="12"/>
+      <c r="F39" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G39" s="16"/>
+      <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+    <row r="40" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="C40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16" t="s">
+      <c r="E40" s="12"/>
+      <c r="F40" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G40" s="16"/>
+      <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+    <row r="41" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16" t="s">
+      <c r="E41" s="12"/>
+      <c r="F41" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G41" s="16"/>
+      <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+    <row r="42" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="12" t="s">
         <v>1170</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="12" t="s">
         <v>1177</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+    <row r="43" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16" t="s">
+      <c r="E43" s="12"/>
+      <c r="F43" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G43" s="16"/>
+      <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+    <row r="44" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="12" t="s">
         <v>1170</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="12" t="s">
         <v>1176</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+    <row r="45" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16" t="s">
+      <c r="E45" s="12"/>
+      <c r="F45" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G45" s="16"/>
+      <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+    <row r="46" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="12" t="s">
         <v>1170</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="12" t="s">
         <v>1178</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+    <row r="47" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16" t="s">
+      <c r="E47" s="12"/>
+      <c r="F47" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G47" s="16"/>
+      <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+    <row r="48" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16" t="s">
+      <c r="E48" s="12"/>
+      <c r="F48" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G48" s="16"/>
+      <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+    <row r="49" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>47</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16" t="s">
+      <c r="E49" s="12"/>
+      <c r="F49" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G49" s="16"/>
+      <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+    <row r="50" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="12" t="s">
         <v>1170</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="12" t="s">
         <v>1180</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="22" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+    <row r="51" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>49</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="C51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="12" t="s">
         <v>1170</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="12" t="s">
         <v>1179</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+    <row r="52" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="C52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
+    <row r="53" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="7" t="s">
+      <c r="C53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="12" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -5240,13 +5268,13 @@
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5254,13 +5282,13 @@
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5268,13 +5296,13 @@
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5282,13 +5310,13 @@
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5296,22 +5324,22 @@
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="12" t="s">
         <v>1170</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F59" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="G59" s="16" t="s">
+      <c r="G59" s="12" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5319,13 +5347,13 @@
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5333,13 +5361,13 @@
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="C61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5347,13 +5375,13 @@
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="C62" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5361,13 +5389,13 @@
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="C63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5375,13 +5403,13 @@
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5389,13 +5417,13 @@
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="C65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5403,13 +5431,13 @@
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5417,13 +5445,13 @@
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5431,13 +5459,13 @@
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5445,22 +5473,22 @@
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="12" t="s">
         <v>1170</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="F69" s="12" t="s">
         <v>1181</v>
       </c>
-      <c r="G69" s="16" t="s">
+      <c r="G69" s="22" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -5468,13 +5496,13 @@
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5482,41 +5510,41 @@
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+      <c r="A72" s="23">
         <v>70</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="13" t="s">
+      <c r="C72" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="25" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
     </row>
     <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5525,12 +5553,6 @@
     <mergeCell ref="C72:C74"/>
     <mergeCell ref="D72:D74"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" tooltip="mw:Manual:RevisionDelete" display="https://www.mediawiki.org/wiki/Manual:RevisionDelete" xr:uid="{F157E408-D7F0-224A-A5AA-969C6C8BFE22}"/>
-    <hyperlink ref="D8" r:id="rId2" tooltip="mw:Manual:RevisionDelete" display="https://www.mediawiki.org/wiki/Manual:RevisionDelete" xr:uid="{7E954718-F1F0-ED46-80CC-11D254BE54F6}"/>
-    <hyperlink ref="D9" r:id="rId3" tooltip="mw:Manual:RevisionDelete" display="https://www.mediawiki.org/wiki/Manual:RevisionDelete" xr:uid="{C5C46F64-79C6-674E-985F-273A83AA7393}"/>
-    <hyperlink ref="D19" r:id="rId4" tooltip="mw:Manual:RevisionDelete" display="https://www.mediawiki.org/wiki/Manual:RevisionDelete" xr:uid="{B375084B-55B2-A649-81DB-401511A89AB2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5550,94 +5572,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>1199</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>1200</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>1184</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="18" t="s">
         <v>1185</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>1186</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>1187</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="18" t="s">
         <v>1188</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="18" t="s">
         <v>1189</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="18" t="s">
         <v>1190</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="18" t="s">
         <v>1155</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="18" t="s">
         <v>1193</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="18" t="s">
         <v>1195</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="18" t="s">
         <v>1197</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>1198</v>
       </c>
     </row>

--- a/docs/mediawiki_history_fields.xlsx
+++ b/docs/mediawiki_history_fields.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WCDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3624F2D4-D332-3243-B103-68B72713EFF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3884CAC-B4F4-CD4F-9651-08C6941D5039}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38340" yWindow="-5140" windowWidth="38340" windowHeight="21060" xr2:uid="{A4C47194-E7CF-004C-A935-E85B4C827786}"/>
   </bookViews>
@@ -3696,7 +3696,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3713,6 +3713,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA9D08E"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3856,7 +3862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -3880,6 +3886,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -4200,8 +4207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A55671-60C7-894C-AF9A-03C07EF4491D}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4270,7 +4277,7 @@
       <c r="F3" s="12" t="s">
         <v>1202</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="23" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4293,7 +4300,7 @@
       <c r="F4" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="23" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4392,7 +4399,7 @@
       <c r="F9" s="12" t="s">
         <v>1174</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="23" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4466,7 +4473,7 @@
       <c r="F13" s="12" t="s">
         <v>1176</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="23" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4646,7 +4653,7 @@
       <c r="F23" s="12" t="s">
         <v>1183</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="23" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4666,7 +4673,7 @@
       <c r="F24" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="23" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5022,7 +5029,7 @@
       <c r="F42" s="12" t="s">
         <v>1177</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="23" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5064,7 +5071,7 @@
       <c r="F44" s="12" t="s">
         <v>1176</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="23" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5106,7 +5113,7 @@
       <c r="F46" s="12" t="s">
         <v>1178</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="23" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5186,8 +5193,8 @@
       <c r="F50" s="12" t="s">
         <v>1180</v>
       </c>
-      <c r="G50" s="22" t="s">
-        <v>1168</v>
+      <c r="G50" s="23" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5209,8 +5216,8 @@
       <c r="F51" s="12" t="s">
         <v>1179</v>
       </c>
-      <c r="G51" s="12" t="s">
-        <v>153</v>
+      <c r="G51" s="23" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5339,7 +5346,7 @@
       <c r="F59" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="G59" s="23" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5521,30 +5528,30 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="23">
+      <c r="A72" s="24">
         <v>70</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="25" t="s">
+      <c r="C72" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="26" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="23"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
     </row>
     <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="23"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5672,12 +5679,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8873FF07-6A00-F242-BADF-062440C94DDF}">
   <dimension ref="A1:BS306"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:XFD84"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
     <col min="52" max="52" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/docs/mediawiki_history_fields.xlsx
+++ b/docs/mediawiki_history_fields.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WCDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3884CAC-B4F4-CD4F-9651-08C6941D5039}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A732AD5-263B-B54A-9662-BB3A01BA2E6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38340" yWindow="-5140" windowWidth="38340" windowHeight="21060" xr2:uid="{A4C47194-E7CF-004C-A935-E85B4C827786}"/>
   </bookViews>
@@ -3862,7 +3862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -3882,14 +3882,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4208,15 +4207,15 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="41" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="122.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="122.33203125" style="12" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="12" customWidth="1"/>
     <col min="6" max="6" width="22" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="12" bestFit="1" customWidth="1"/>
@@ -4224,13 +4223,13 @@
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>147</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>149</v>
       </c>
       <c r="E1" s="8" t="s">
@@ -4251,10 +4250,10 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4265,10 +4264,10 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -4277,7 +4276,7 @@
       <c r="F3" s="12" t="s">
         <v>1202</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="21" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4288,10 +4287,10 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -4300,7 +4299,7 @@
       <c r="F4" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4311,16 +4310,16 @@
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>1173</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="19" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -4331,10 +4330,10 @@
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -4348,17 +4347,17 @@
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="12" t="s">
         <v>1203</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="19" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -4369,10 +4368,10 @@
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="15"/>
@@ -4387,10 +4386,10 @@
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="C9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="16" t="s">
@@ -4399,7 +4398,7 @@
       <c r="F9" s="12" t="s">
         <v>1174</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="21" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4410,10 +4409,10 @@
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -4427,10 +4426,10 @@
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="24" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -4444,10 +4443,10 @@
       <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -4461,10 +4460,10 @@
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="24" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -4473,7 +4472,7 @@
       <c r="F13" s="12" t="s">
         <v>1176</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="21" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4484,10 +4483,10 @@
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="24" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="12" t="s">
@@ -4501,10 +4500,10 @@
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="12" t="s">
@@ -4518,10 +4517,10 @@
       <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="24" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="12" t="s">
@@ -4535,10 +4534,10 @@
       <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="24" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="12" t="s">
@@ -4552,10 +4551,10 @@
       <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="24" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="12" t="s">
@@ -4569,10 +4568,10 @@
       <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="15"/>
@@ -4587,10 +4586,10 @@
       <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="19" t="s">
+      <c r="C20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="12" t="s">
@@ -4607,10 +4606,10 @@
       <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="19" t="s">
+      <c r="C21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="24" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="12" t="s">
@@ -4624,10 +4623,10 @@
       <c r="B22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="19" t="s">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="12" t="s">
@@ -4641,10 +4640,10 @@
       <c r="B23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E23" s="12" t="s">
@@ -4653,7 +4652,7 @@
       <c r="F23" s="12" t="s">
         <v>1183</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="21" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4664,16 +4663,16 @@
       <c r="B24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="12" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="21" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4684,10 +4683,10 @@
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -4705,10 +4704,10 @@
       <c r="B26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="12" t="s">
@@ -4717,7 +4716,7 @@
       <c r="F26" s="12" t="s">
         <v>1175</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="20" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -4728,10 +4727,10 @@
       <c r="B27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="12" t="s">
@@ -4748,10 +4747,10 @@
       <c r="B28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F28" s="12" t="s">
@@ -4765,10 +4764,10 @@
       <c r="B29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F29" s="12" t="s">
@@ -4782,10 +4781,10 @@
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E30" s="12" t="s">
@@ -4802,10 +4801,10 @@
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F31" s="12" t="s">
@@ -4819,10 +4818,10 @@
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F32" s="12" t="s">
@@ -4836,10 +4835,10 @@
       <c r="B33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F33" s="12" t="s">
@@ -4853,10 +4852,10 @@
       <c r="B34" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -4873,10 +4872,10 @@
       <c r="B35" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E35" s="12" t="s">
@@ -4885,7 +4884,7 @@
       <c r="F35" s="12" t="s">
         <v>1171</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="20" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -4896,10 +4895,10 @@
       <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="12" t="s">
@@ -4908,7 +4907,7 @@
       <c r="F36" s="12" t="s">
         <v>1167</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="20" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -4919,16 +4918,16 @@
       <c r="B37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="12" t="s">
         <v>76</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>1172</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="20" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -4939,10 +4938,10 @@
       <c r="B38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="13" t="s">
         <v>78</v>
       </c>
       <c r="E38" s="13" t="s">
@@ -4960,10 +4959,10 @@
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E39" s="12"/>
@@ -4979,10 +4978,10 @@
       <c r="B40" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>82</v>
       </c>
       <c r="E40" s="12"/>
@@ -4998,10 +4997,10 @@
       <c r="B41" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E41" s="12"/>
@@ -5017,10 +5016,10 @@
       <c r="B42" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E42" s="12" t="s">
@@ -5029,7 +5028,7 @@
       <c r="F42" s="12" t="s">
         <v>1177</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="21" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5040,10 +5039,10 @@
       <c r="B43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="12" t="s">
         <v>88</v>
       </c>
       <c r="E43" s="12"/>
@@ -5059,10 +5058,10 @@
       <c r="B44" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="12" t="s">
         <v>90</v>
       </c>
       <c r="E44" s="12" t="s">
@@ -5071,7 +5070,7 @@
       <c r="F44" s="12" t="s">
         <v>1176</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="G44" s="21" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5082,10 +5081,10 @@
       <c r="B45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="12" t="s">
         <v>92</v>
       </c>
       <c r="E45" s="12"/>
@@ -5101,10 +5100,10 @@
       <c r="B46" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="12" t="s">
         <v>94</v>
       </c>
       <c r="E46" s="12" t="s">
@@ -5113,7 +5112,7 @@
       <c r="F46" s="12" t="s">
         <v>1178</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G46" s="21" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5124,10 +5123,10 @@
       <c r="B47" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="12" t="s">
         <v>96</v>
       </c>
       <c r="E47" s="12"/>
@@ -5143,10 +5142,10 @@
       <c r="B48" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="12" t="s">
         <v>98</v>
       </c>
       <c r="E48" s="12"/>
@@ -5162,10 +5161,10 @@
       <c r="B49" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="12" t="s">
         <v>100</v>
       </c>
       <c r="E49" s="12"/>
@@ -5181,10 +5180,10 @@
       <c r="B50" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="12" t="s">
         <v>102</v>
       </c>
       <c r="E50" s="12" t="s">
@@ -5193,7 +5192,7 @@
       <c r="F50" s="12" t="s">
         <v>1180</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="G50" s="21" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5204,10 +5203,10 @@
       <c r="B51" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="C51" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>104</v>
       </c>
       <c r="E51" s="12" t="s">
@@ -5216,7 +5215,7 @@
       <c r="F51" s="12" t="s">
         <v>1179</v>
       </c>
-      <c r="G51" s="23" t="s">
+      <c r="G51" s="21" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5227,10 +5226,10 @@
       <c r="B52" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="4" t="s">
+      <c r="C52" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>106</v>
       </c>
       <c r="E52" s="12"/>
@@ -5244,10 +5243,10 @@
       <c r="B53" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="C53" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>108</v>
       </c>
       <c r="E53" s="14"/>
@@ -5261,10 +5260,10 @@
       <c r="B54" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="12" t="s">
         <v>110</v>
       </c>
       <c r="E54" s="12" t="s">
@@ -5278,10 +5277,10 @@
       <c r="B55" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="12" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5292,10 +5291,10 @@
       <c r="B56" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="12" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5306,10 +5305,10 @@
       <c r="B57" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="12" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5320,10 +5319,10 @@
       <c r="B58" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="12" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5334,10 +5333,10 @@
       <c r="B59" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="12" t="s">
         <v>120</v>
       </c>
       <c r="E59" s="12" t="s">
@@ -5346,7 +5345,7 @@
       <c r="F59" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="G59" s="23" t="s">
+      <c r="G59" s="21" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5357,10 +5356,10 @@
       <c r="B60" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="12" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5371,10 +5370,10 @@
       <c r="B61" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="4" t="s">
+      <c r="C61" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5385,10 +5384,10 @@
       <c r="B62" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="4" t="s">
+      <c r="C62" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="12" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5399,10 +5398,10 @@
       <c r="B63" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="4" t="s">
+      <c r="C63" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="12" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5413,10 +5412,10 @@
       <c r="B64" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="12" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5427,10 +5426,10 @@
       <c r="B65" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="4" t="s">
+      <c r="C65" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="12" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5441,10 +5440,10 @@
       <c r="B66" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5455,10 +5454,10 @@
       <c r="B67" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="12" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5469,10 +5468,10 @@
       <c r="B68" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5483,10 +5482,10 @@
       <c r="B69" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="12" t="s">
         <v>140</v>
       </c>
       <c r="E69" s="12" t="s">
@@ -5495,7 +5494,7 @@
       <c r="F69" s="12" t="s">
         <v>1181</v>
       </c>
-      <c r="G69" s="22" t="s">
+      <c r="G69" s="20" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -5506,10 +5505,10 @@
       <c r="B70" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="12" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5520,38 +5519,38 @@
       <c r="B71" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="12" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="24">
+      <c r="A72" s="22">
         <v>70</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="26" t="s">
+      <c r="C72" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="25" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="24"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
     </row>
     <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="24"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/docs/mediawiki_history_fields.xlsx
+++ b/docs/mediawiki_history_fields.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WCDO/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A732AD5-263B-B54A-9662-BB3A01BA2E6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FD3367-C9FD-3C4D-8B4E-96BA281F46C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38340" yWindow="-5140" windowWidth="38340" windowHeight="21060" xr2:uid="{A4C47194-E7CF-004C-A935-E85B4C827786}"/>
+    <workbookView xWindow="-37960" yWindow="-5140" windowWidth="38340" windowHeight="21060" xr2:uid="{A4C47194-E7CF-004C-A935-E85B4C827786}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3862,7 +3862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -3885,10 +3885,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4206,8 +4207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A55671-60C7-894C-AF9A-03C07EF4491D}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4333,7 +4334,7 @@
       <c r="C6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="22" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -4350,7 +4351,7 @@
       <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="15"/>
@@ -4371,7 +4372,7 @@
       <c r="C8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="22" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="15"/>
@@ -4389,7 +4390,7 @@
       <c r="C9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="16" t="s">
@@ -4412,7 +4413,7 @@
       <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -4429,7 +4430,7 @@
       <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -4446,7 +4447,7 @@
       <c r="C12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="22" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -4463,7 +4464,7 @@
       <c r="C13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -4486,7 +4487,7 @@
       <c r="C14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="22" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="12" t="s">
@@ -4503,7 +4504,7 @@
       <c r="C15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="22" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="12" t="s">
@@ -4520,7 +4521,7 @@
       <c r="C16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="22" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="12" t="s">
@@ -4537,7 +4538,7 @@
       <c r="C17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="22" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="12" t="s">
@@ -4554,7 +4555,7 @@
       <c r="C18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="22" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="12" t="s">
@@ -4571,7 +4572,7 @@
       <c r="C19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="22" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="15"/>
@@ -4589,7 +4590,7 @@
       <c r="C20" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="22" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="12" t="s">
@@ -4609,7 +4610,7 @@
       <c r="C21" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="12" t="s">
@@ -4626,7 +4627,7 @@
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="22" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="12" t="s">
@@ -5433,19 +5434,22 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66">
+    <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
         <v>64</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="13" t="s">
         <v>134</v>
       </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
@@ -5475,26 +5479,26 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69">
+    <row r="69" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
         <v>67</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="14" t="s">
         <v>1170</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="14" t="s">
         <v>1181</v>
       </c>
-      <c r="G69" s="20" t="s">
+      <c r="G69" s="26" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -5527,10 +5531,10 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="22">
+      <c r="A72" s="23">
         <v>70</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="24" t="s">
         <v>145</v>
       </c>
       <c r="C72" s="25" t="s">
@@ -5541,14 +5545,14 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="22"/>
-      <c r="B73" s="23"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="24"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
     </row>
     <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="22"/>
-      <c r="B74" s="23"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="24"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
     </row>
